--- a/log_history/Y2_B2526_Biochemistry_Lab_CBL_scanner1763293016567_7d2cdc8fab672a910c58fdb4446c97fa22c295e53fa444c8ab65aa2bc8793171.xlsx
+++ b/log_history/Y2_B2526_Biochemistry_Lab_CBL_scanner1763293016567_7d2cdc8fab672a910c58fdb4446c97fa22c295e53fa444c8ab65aa2bc8793171.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Biochemistry_Lab_CBL" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y2_B2526_Biochemistry_Lab_CBL_scanner1763293016567_7d2cdc8fab672a910c58fdb4446c97fa22c295e53fa444c8ab65aa2bc8793171.xlsx
+++ b/log_history/Y2_B2526_Biochemistry_Lab_CBL_scanner1763293016567_7d2cdc8fab672a910c58fdb4446c97fa22c295e53fa444c8ab65aa2bc8793171.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Biochemistry_Lab_CBL" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
